--- a/biology/Botanique/Actaea_spicata/Actaea_spicata.xlsx
+++ b/biology/Botanique/Actaea_spicata/Actaea_spicata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Actée en épi, Raisin de loup
-L'Actée en épi (Actaea spicata) est une espèce d’arbrisseaux de la famille des Renonculacées. Ses baies sont très toxiques[1].
+L'Actée en épi (Actaea spicata) est une espèce d’arbrisseaux de la famille des Renonculacées. Ses baies sont très toxiques.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante vivace de 30 à 80 cm. La souche est vivace et épaisse. Feuilles composées aux folioles dentées en scie. Les fleurs sont blanches et petites en grappe[2]. Les baies noires contiennent de nombreuses graines[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace de 30 à 80 cm. La souche est vivace et épaisse. Feuilles composées aux folioles dentées en scie. Les fleurs sont blanches et petites en grappe. Les baies noires contiennent de nombreuses graines.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toute la plante est toxique et peut provoquer une gastro-entérite, une accélération du rythme cardiaque avec chute de tension et un malaise qui disparaissent souvent en trois heures ; il y a un risque de collapsus. Elle entraîne rarement la mort[4]. L'utilisation du rhizome en médecine populaire est déconseillée[5].La toxicité des baies vient de la présence d'un alcaloïde : l'actéine, et de la proto-anémonine.[réf. nécessaire]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toute la plante est toxique et peut provoquer une gastro-entérite, une accélération du rythme cardiaque avec chute de tension et un malaise qui disparaissent souvent en trois heures ; il y a un risque de collapsus. Elle entraîne rarement la mort. L'utilisation du rhizome en médecine populaire est déconseillée.La toxicité des baies vient de la présence d'un alcaloïde : l'actéine, et de la proto-anémonine.[réf. nécessaire]
 On utilise en médecine homéopathique les parties souterraines pour les arthroses déformantes des doigts en 5CH.
 Référence : Matière médicale Guermonprez.[source insuffisante]
 </t>
@@ -576,10 +592,12 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forêts humides, ravins, rochers, souvent sur calcaire ; étage collinéen et montagnard[6] (de 0 à 2 300 mètres d'altitude)[7].
-Ses facteurs écologiques selon l'"échelle des valeurs de Landolt"[8],[9] sont F.434-133-h, plante forestière poussant dans des sols humides, peu acides et riches, dans des endroits très ombragés à l'étage montagnard, presque partout en Suisse; Les bourgeons végétatifs de cette plante herbacée sont au niveau du sol[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forêts humides, ravins, rochers, souvent sur calcaire ; étage collinéen et montagnard (de 0 à 2 300 mètres d'altitude).
+Ses facteurs écologiques selon l'"échelle des valeurs de Landolt", sont F.434-133-h, plante forestière poussant dans des sols humides, peu acides et riches, dans des endroits très ombragés à l'étage montagnard, presque partout en Suisse; Les bourgeons végétatifs de cette plante herbacée sont au niveau du sol.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Europe et Asie tempérées, Sibérie, Indes[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Europe et Asie tempérées, Sibérie, Indes.
 </t>
         </is>
       </c>
@@ -639,9 +659,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale par l'UICN. En Europe et en France elle est classée comme non préoccupante [11].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale par l'UICN. En Europe et en France elle est classée comme non préoccupante .
 Toutefois localement l'espèce est considérée en danger-critique (CR) en Basse-Normandie ; en danger (EN) en Île-de-France, Limousin et Nord-Pas-de-Calais ; comme vulnérable (VU) en Picardie ; quasi menacée (NT), proche du seuil des espèces menacées ou qui pourraient l'être si des mesures de conservation spécifiques n'étaient pas prises, en Haute-Normandie, Alsace, Champagne-Ardennes et Bourgogne.[réf. nécessaire]
 </t>
         </is>
@@ -671,9 +693,11 @@
           <t>Noms populaires</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raisin de loup, Cristophoriane, Ellebore noir (à éviter car risque de confusion avec Helleborus niger L.)[10], Herbe de Saint Christophe[3], Herbe aux poux[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raisin de loup, Cristophoriane, Ellebore noir (à éviter car risque de confusion avec Helleborus niger L.), Herbe de Saint Christophe, Herbe aux poux.
 </t>
         </is>
       </c>
